--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_isoelastic.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
-    <t xml:space="preserve">WR_cor_pop</t>
+    <t xml:space="preserve">cor_pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_pop</t>
   </si>
   <si>
     <t xml:space="preserve">WR_cor_u</t>
@@ -29,9 +32,6 @@
     <t xml:space="preserve">WR_cor_hu_apop</t>
   </si>
   <si>
-    <t xml:space="preserve">WR_e_pop</t>
-  </si>
-  <si>
     <t xml:space="preserve">WR_e_u</t>
   </si>
   <si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">WR_e_hu_apop</t>
   </si>
   <si>
-    <t xml:space="preserve">NC_cor_pop</t>
-  </si>
-  <si>
     <t xml:space="preserve">NC_cor_u</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">NC_cor_hu_apop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_e_pop</t>
   </si>
   <si>
     <t xml:space="preserve">NC_e_u</t>
@@ -509,31 +503,25 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.978445703173817</v>
       </c>
       <c r="C2" t="n">
+        <v>72.8753918662978</v>
+      </c>
+      <c r="D2" t="n">
         <v>-0.992244937086005</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.978445703173817</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.992244937086005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72.8753918662978</v>
       </c>
       <c r="G2" t="n">
         <v>-3.08929405572168</v>
@@ -545,48 +533,42 @@
         <v>0.723720330940137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.978445703173817</v>
+        <v>-0.992244937086005</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.992244937086005</v>
+        <v>-0.978445703173817</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.978445703173817</v>
+        <v>0.992244937086005</v>
       </c>
       <c r="M2" t="n">
-        <v>0.992244937086005</v>
+        <v>-0.0568594319800132</v>
       </c>
       <c r="N2" t="n">
-        <v>72.8753918662978</v>
+        <v>-5.72548981932817</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0568594319800132</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-5.72548981932817</v>
-      </c>
-      <c r="Q2" t="n">
         <v>0.723720330940137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.858108647676435</v>
       </c>
       <c r="C3" t="n">
+        <v>0.00254435523045804</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.877554283710212</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.858108647676435</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.877554283710212</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00254435523045804</v>
       </c>
       <c r="G3" t="n">
         <v>0.000531496136996593</v>
@@ -598,48 +580,42 @@
         <v>0.00003959297802418</v>
       </c>
       <c r="J3" t="n">
+        <v>0.877554283710211</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.858108647676435</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.877554283710211</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.858108647676435</v>
+        <v>0.877554283710212</v>
       </c>
       <c r="M3" t="n">
-        <v>0.877554283710212</v>
+        <v>0.00000619043304612587</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00254435523045804</v>
+        <v>0.000397814498573243</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00000619043304612587</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.000397814498573243</v>
-      </c>
-      <c r="Q3" t="n">
         <v>0.00003959297802418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.96140458865591</v>
       </c>
       <c r="C4" t="n">
+        <v>165.930306433566</v>
+      </c>
+      <c r="D4" t="n">
         <v>-0.963772899092752</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.961404588655909</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.963772899092752</v>
-      </c>
-      <c r="F4" t="n">
-        <v>165.930306433566</v>
       </c>
       <c r="G4" t="n">
         <v>-7.54762971014656</v>
@@ -651,48 +627,42 @@
         <v>2.53106294773527</v>
       </c>
       <c r="J4" t="n">
-        <v>0.96140458865591</v>
+        <v>-0.963772899092752</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.963772899092752</v>
+        <v>-0.961404588655909</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.961404588655909</v>
+        <v>0.963772899092752</v>
       </c>
       <c r="M4" t="n">
-        <v>0.963772899092752</v>
+        <v>-0.000735822045880693</v>
       </c>
       <c r="N4" t="n">
-        <v>165.930306433566</v>
+        <v>-0.048238696577185</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.000735822045880693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.048238696577185</v>
-      </c>
-      <c r="Q4" t="n">
         <v>2.53106294773527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
         <v>0.996754735111256</v>
       </c>
       <c r="C5" t="n">
+        <v>0.0248261849493195</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.923315161675695</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.996754735111256</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.923315161675696</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0248261849493195</v>
       </c>
       <c r="G5" t="n">
         <v>-0.00499104217820003</v>
@@ -704,48 +674,42 @@
         <v>0.0003499293401248</v>
       </c>
       <c r="J5" t="n">
-        <v>0.996754735111256</v>
+        <v>-0.923315161675695</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.923315161675695</v>
+        <v>-0.996754735111256</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.996754735111256</v>
+        <v>0.923315161675696</v>
       </c>
       <c r="M5" t="n">
-        <v>0.923315161675696</v>
+        <v>-0.000384890833527492</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0248261849493195</v>
+        <v>-0.0273065728499456</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.000384890833527492</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.0273065728499456</v>
-      </c>
-      <c r="Q5" t="n">
         <v>0.0003499293401248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.931693181546322</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0047001261183794</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.988228841931753</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.931693181546321</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.988228841931752</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0047001261183794</v>
       </c>
       <c r="G6" t="n">
         <v>0.00101832117435525</v>
@@ -757,48 +721,42 @@
         <v>0.0000758582519632932</v>
       </c>
       <c r="J6" t="n">
-        <v>0.931693181546322</v>
+        <v>0.988228841931752</v>
       </c>
       <c r="K6" t="n">
+        <v>0.931693181546321</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.988228841931752</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.931693181546321</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.988228841931752</v>
+        <v>0.000089691634301772</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0047001261183794</v>
+        <v>0.00555723315620139</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000089691634301772</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.00555723315620139</v>
-      </c>
-      <c r="Q6" t="n">
         <v>0.0000758582519632932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.972436504654332</v>
       </c>
       <c r="C7" t="n">
+        <v>0.101424722848992</v>
+      </c>
+      <c r="D7" t="n">
         <v>-0.879198123773872</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.972436504654332</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.879198123773872</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.101424722848992</v>
       </c>
       <c r="G7" t="n">
         <v>-0.0149847661843334</v>
@@ -810,48 +768,42 @@
         <v>0.00139533356156264</v>
       </c>
       <c r="J7" t="n">
-        <v>0.972436504654332</v>
+        <v>-0.879198123773873</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.879198123773873</v>
+        <v>-0.972436504654332</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.972436504654332</v>
+        <v>0.879198123773872</v>
       </c>
       <c r="M7" t="n">
-        <v>0.879198123773872</v>
+        <v>-0.00114899128457015</v>
       </c>
       <c r="N7" t="n">
-        <v>0.101424722848992</v>
+        <v>-0.0835184688476392</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.00114899128457015</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.0835184688476392</v>
-      </c>
-      <c r="Q7" t="n">
         <v>0.00139533356156264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.984612346027066</v>
       </c>
       <c r="C8" t="n">
+        <v>4.59132957024497</v>
+      </c>
+      <c r="D8" t="n">
         <v>-0.978276699992534</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.984612346027066</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.978276699992534</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.59132957024497</v>
       </c>
       <c r="G8" t="n">
         <v>-1.26372213003781</v>
@@ -863,48 +815,42 @@
         <v>0.0694134471457636</v>
       </c>
       <c r="J8" t="n">
-        <v>0.984612346027066</v>
+        <v>-0.978276699992534</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.978276699992534</v>
+        <v>-0.984612346027066</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.984612346027066</v>
+        <v>0.978276699992534</v>
       </c>
       <c r="M8" t="n">
-        <v>0.978276699992534</v>
+        <v>-0.0135323719709395</v>
       </c>
       <c r="N8" t="n">
-        <v>4.59132957024497</v>
+        <v>-0.895094281303397</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0135323719709395</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-0.895094281303397</v>
-      </c>
-      <c r="Q8" t="n">
         <v>0.0694134471457636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.978004616666025</v>
       </c>
       <c r="C9" t="n">
+        <v>0.239485008692609</v>
+      </c>
+      <c r="D9" t="n">
         <v>-0.907556904465972</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.978004616666024</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.907556904465973</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.239485008692609</v>
       </c>
       <c r="G9" t="n">
         <v>-0.0630293187160773</v>
@@ -916,48 +862,42 @@
         <v>0.00338158263405104</v>
       </c>
       <c r="J9" t="n">
-        <v>0.978004616666025</v>
+        <v>-0.907556904465972</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.907556904465972</v>
+        <v>-0.978004616666024</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.978004616666024</v>
+        <v>0.907556904465973</v>
       </c>
       <c r="M9" t="n">
-        <v>0.907556904465973</v>
+        <v>-0.000880992460886309</v>
       </c>
       <c r="N9" t="n">
-        <v>0.239485008692609</v>
+        <v>-0.062392231681391</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.000880992460886309</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-0.062392231681391</v>
-      </c>
-      <c r="Q9" t="n">
         <v>0.00338158263405104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0.968609140697871</v>
       </c>
       <c r="C10" t="n">
+        <v>0.083269198054012</v>
+      </c>
+      <c r="D10" t="n">
         <v>-0.919686646741361</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.968609140697871</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.919686646741361</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.083269198054012</v>
       </c>
       <c r="G10" t="n">
         <v>-0.0224236868505522</v>
@@ -969,48 +909,42 @@
         <v>0.00120305203340052</v>
       </c>
       <c r="J10" t="n">
-        <v>0.968609140697871</v>
+        <v>-0.919686646741361</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.919686646741361</v>
+        <v>-0.968609140697871</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.968609140697871</v>
+        <v>0.919686646741361</v>
       </c>
       <c r="M10" t="n">
-        <v>0.919686646741361</v>
+        <v>-0.00056828580168107</v>
       </c>
       <c r="N10" t="n">
-        <v>0.083269198054012</v>
+        <v>-0.0393338788827849</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.00056828580168107</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-0.0393338788827849</v>
-      </c>
-      <c r="Q10" t="n">
         <v>0.00120305203340052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0.988210637213618</v>
       </c>
       <c r="C11" t="n">
+        <v>0.161020683871765</v>
+      </c>
+      <c r="D11" t="n">
         <v>-0.969135616668426</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.988210637213618</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.969135616668425</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.161020683871765</v>
       </c>
       <c r="G11" t="n">
         <v>-0.0201598533951168</v>
@@ -1022,48 +956,42 @@
         <v>0.00240284307450736</v>
       </c>
       <c r="J11" t="n">
-        <v>0.988210637213618</v>
+        <v>-0.969135616668426</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.969135616668426</v>
+        <v>-0.988210637213618</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.988210637213618</v>
+        <v>0.969135616668425</v>
       </c>
       <c r="M11" t="n">
-        <v>0.969135616668425</v>
+        <v>-0.000986183151100742</v>
       </c>
       <c r="N11" t="n">
-        <v>0.161020683871765</v>
+        <v>-0.0660866650418317</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.000986183151100742</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-0.0660866650418317</v>
-      </c>
-      <c r="Q11" t="n">
         <v>0.00240284307450736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>-0.786597091305082</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.00118517820060885</v>
+      </c>
+      <c r="D12" t="n">
         <v>-0.866475403156596</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.786597091305082</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-0.866475403156596</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.00118517820060885</v>
       </c>
       <c r="G12" t="n">
         <v>-0.000266672487859493</v>
@@ -1075,48 +1003,42 @@
         <v>-0.0000198653521945391</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.786597091305082</v>
+        <v>-0.866475403156597</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.866475403156597</v>
+        <v>-0.786597091305083</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.786597091305083</v>
+        <v>-0.866475403156596</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.866475403156596</v>
+        <v>-0.00000310598340500937</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.00118517820060885</v>
+        <v>-0.000185304734948614</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.00000310598340500937</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-0.000185304734948614</v>
-      </c>
-      <c r="Q12" t="n">
         <v>-0.0000198653521945391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>-0.521724823762677</v>
       </c>
       <c r="C13" t="n">
+        <v>-0.00074978083446401</v>
+      </c>
+      <c r="D13" t="n">
         <v>-0.77145063691929</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.521724823762677</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.77145063691929</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.00074978083446401</v>
       </c>
       <c r="G13" t="n">
         <v>-0.000226460066796079</v>
@@ -1128,48 +1050,42 @@
         <v>-0.0000168697904347496</v>
       </c>
       <c r="J13" t="n">
+        <v>-0.77145063691929</v>
+      </c>
+      <c r="K13" t="n">
         <v>-0.521724823762677</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>-0.77145063691929</v>
       </c>
-      <c r="L13" t="n">
-        <v>-0.521724823762677</v>
-      </c>
       <c r="M13" t="n">
-        <v>-0.77145063691929</v>
+        <v>-0.00000263762195722469</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00074978083446401</v>
+        <v>-0.000117229576724014</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00000263762195722469</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.000117229576724014</v>
-      </c>
-      <c r="Q13" t="n">
         <v>-0.0000168697904347496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
         <v>-0.793891673248891</v>
       </c>
       <c r="C14" t="n">
+        <v>-0.00950693336296232</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.76307410057375</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.793891673248891</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-0.763074100573749</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.00950693336296232</v>
       </c>
       <c r="G14" t="n">
         <v>0.00155893714774236</v>
@@ -1181,48 +1097,42 @@
         <v>-0.0000836384541950943</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.793891673248891</v>
+        <v>0.763074100573749</v>
       </c>
       <c r="K14" t="n">
-        <v>0.763074100573749</v>
+        <v>0.793891673248891</v>
       </c>
       <c r="L14" t="n">
-        <v>0.793891673248891</v>
+        <v>-0.763074100573749</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.763074100573749</v>
+        <v>0.0000039837615529486</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00950693336296232</v>
+        <v>0.000452822281118091</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0000039837615529486</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.000452822281118091</v>
-      </c>
-      <c r="Q14" t="n">
         <v>-0.0000836384541950943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>0.757082729769264</v>
       </c>
       <c r="C15" t="n">
+        <v>0.00059980474591938</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.903061937588013</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.757082729769264</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.903061937588013</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.00059980474591938</v>
       </c>
       <c r="G15" t="n">
         <v>0.000146141900730999</v>
@@ -1234,48 +1144,42 @@
         <v>0.0000108866135824642</v>
       </c>
       <c r="J15" t="n">
-        <v>0.757082729769264</v>
+        <v>0.903061937588012</v>
       </c>
       <c r="K15" t="n">
-        <v>0.903061937588012</v>
+        <v>0.757082729769263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.757082729769263</v>
+        <v>0.903061937588013</v>
       </c>
       <c r="M15" t="n">
-        <v>0.903061937588013</v>
+        <v>0.0000128718779954957</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00059980474591938</v>
+        <v>0.000709184123429318</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0000128718779954957</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.000709184123429318</v>
-      </c>
-      <c r="Q15" t="n">
         <v>0.0000108866135824642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
         <v>-0.557459045373724</v>
       </c>
       <c r="C16" t="n">
+        <v>-0.000799226509082303</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.548843049801487</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.557459045373724</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.548843049801487</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.000799226509082303</v>
       </c>
       <c r="G16" t="n">
         <v>0.000343298402255614</v>
@@ -1287,48 +1191,42 @@
         <v>-0.000011973298069741</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.557459045373724</v>
+        <v>0.548843049801487</v>
       </c>
       <c r="K16" t="n">
-        <v>0.548843049801487</v>
+        <v>0.557459045373726</v>
       </c>
       <c r="L16" t="n">
-        <v>0.557459045373726</v>
+        <v>-0.548843049801487</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.548843049801487</v>
+        <v>0.000000859971408592146</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.000799226509082303</v>
+        <v>0.0000574037280953252</v>
       </c>
       <c r="O16" t="n">
-        <v>0.000000859971408592146</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0000574037280953252</v>
-      </c>
-      <c r="Q16" t="n">
         <v>-0.000011973298069741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
         <v>0.594635188154063</v>
       </c>
       <c r="C17" t="n">
+        <v>0.0268204257469662</v>
+      </c>
+      <c r="D17" t="n">
         <v>-0.34660514976427</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-0.594635188154063</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.34660514976427</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0268204257469662</v>
       </c>
       <c r="G17" t="n">
         <v>-0.00558828796176511</v>
@@ -1340,48 +1238,42 @@
         <v>0.000237880468319645</v>
       </c>
       <c r="J17" t="n">
-        <v>0.594635188154063</v>
+        <v>-0.346605149764271</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.346605149764271</v>
+        <v>-0.594635188154062</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.594635188154062</v>
+        <v>0.34660514976427</v>
       </c>
       <c r="M17" t="n">
-        <v>0.34660514976427</v>
+        <v>-0.0000547822446586284</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0268204257469662</v>
+        <v>-0.00617656058733067</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0000547822446586284</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-0.00617656058733067</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.000237880468319645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>0.713533236149945</v>
       </c>
       <c r="C18" t="n">
+        <v>0.0372685163729708</v>
+      </c>
+      <c r="D18" t="n">
         <v>-0.74451302174606</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.713533236149945</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.74451302174606</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0372685163729708</v>
       </c>
       <c r="G18" t="n">
         <v>-0.00496444687455842</v>
@@ -1393,48 +1285,42 @@
         <v>0.000591709996967631</v>
       </c>
       <c r="J18" t="n">
-        <v>0.713533236149945</v>
+        <v>-0.744513021746061</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.744513021746061</v>
+        <v>-0.713533236149946</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.713533236149946</v>
+        <v>0.74451302174606</v>
       </c>
       <c r="M18" t="n">
-        <v>0.74451302174606</v>
+        <v>-0.00024285165999323</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0372685163729708</v>
+        <v>-0.0152958731693626</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.00024285165999323</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-0.0152958731693626</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.000591709996967631</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
         <v>0.913986017281333</v>
       </c>
       <c r="C19" t="n">
+        <v>0.0995872123477592</v>
+      </c>
+      <c r="D19" t="n">
         <v>-0.742098653688219</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-0.913986017281333</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.742098653688219</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0995872123477592</v>
       </c>
       <c r="G19" t="n">
         <v>-0.0352770586735377</v>
@@ -1446,48 +1332,42 @@
         <v>0.00123036616467417</v>
       </c>
       <c r="J19" t="n">
-        <v>0.913986017281333</v>
+        <v>-0.742098653688219</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.742098653688219</v>
+        <v>-0.913986017281333</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.913986017281333</v>
+        <v>0.742098653688219</v>
       </c>
       <c r="M19" t="n">
-        <v>0.742098653688219</v>
+        <v>-0.0015541889207187</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0995872123477592</v>
+        <v>-0.125797788105736</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0015541889207187</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-0.125797788105736</v>
-      </c>
-      <c r="Q19" t="n">
         <v>0.00123036616467417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="n">
         <v>0.265268303719946</v>
       </c>
       <c r="C20" t="n">
+        <v>0.0109015410894385</v>
+      </c>
+      <c r="D20" t="n">
         <v>-0.057958138222745</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-0.265268303719946</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.057958138222745</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0109015410894385</v>
       </c>
       <c r="G20" t="n">
         <v>-0.000675535664163159</v>
@@ -1499,48 +1379,42 @@
         <v>0.0000362431280735638</v>
       </c>
       <c r="J20" t="n">
-        <v>0.265268303719946</v>
+        <v>-0.057958138222745</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.057958138222745</v>
+        <v>-0.265268303719946</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.265268303719946</v>
+        <v>0.057958138222745</v>
       </c>
       <c r="M20" t="n">
-        <v>0.057958138222745</v>
+        <v>-0.00000723386864074146</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0109015410894385</v>
+        <v>-0.0021758694796591</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.00000723386864074146</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-0.0021758694796591</v>
-      </c>
-      <c r="Q20" t="n">
         <v>0.0000362431280735638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="n">
         <v>-0.969136159242639</v>
       </c>
       <c r="C21" t="n">
+        <v>-0.76506615697451</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.836638703246436</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.969136159242638</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.836638703246436</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.76506615697451</v>
       </c>
       <c r="G21" t="n">
         <v>0.00658361191504163</v>
@@ -1552,48 +1426,42 @@
         <v>-0.0100666848853847</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.969136159242639</v>
+        <v>0.836638703246441</v>
       </c>
       <c r="K21" t="n">
-        <v>0.836638703246441</v>
+        <v>0.96913615924264</v>
       </c>
       <c r="L21" t="n">
-        <v>0.96913615924264</v>
+        <v>-0.836638703246436</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.836638703246436</v>
+        <v>0.000500874956430782</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.76506615697451</v>
+        <v>0.0380664024357834</v>
       </c>
       <c r="O21" t="n">
-        <v>0.000500874956430782</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0380664024357834</v>
-      </c>
-      <c r="Q21" t="n">
         <v>-0.0100666848853847</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="n">
         <v>-0.997750022694171</v>
       </c>
       <c r="C22" t="n">
+        <v>-1.48248849115179</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.911484713085814</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.997750022694171</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-0.911484713085814</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.48248849115179</v>
       </c>
       <c r="G22" t="n">
         <v>0.299213198724262</v>
@@ -1605,41 +1473,35 @@
         <v>-0.0208714563842259</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.997750022694171</v>
+        <v>0.911484713085815</v>
       </c>
       <c r="K22" t="n">
-        <v>0.911484713085815</v>
+        <v>0.997750022694171</v>
       </c>
       <c r="L22" t="n">
-        <v>0.997750022694171</v>
+        <v>-0.911484713085814</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.911484713085814</v>
+        <v>0.0237824052940545</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.48248849115179</v>
+        <v>1.68925165025808</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0237824052940545</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.68925165025808</v>
-      </c>
-      <c r="Q22" t="n">
         <v>-0.0208714563842259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23"/>
-      <c r="C23"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23"/>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -1652,31 +1514,27 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
+      <c r="M23" t="n">
+        <v>-0.000000000000000610482346378539</v>
+      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.0000000000000637682911622807</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.000000000000000610482346378539</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.0000000000000637682911622807</v>
-      </c>
-      <c r="Q23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24"/>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
@@ -1689,17 +1547,13 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
+      <c r="M24" t="n">
+        <v>0.000000000000351637831514038</v>
+      </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.0000000000367305357094737</v>
       </c>
       <c r="O24" t="n">
-        <v>0.000000000000351637831514038</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0000000000367305357094737</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/cor_and_elas_isoelastic.xlsx
@@ -1528,33 +1528,47 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24"/>
+      <c r="B24" t="n">
+        <v>-0.99949039209519</v>
+      </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>-167966135.730231</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.926364313099264</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.999490392095189</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.926364313099265</v>
+      </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>100764.6022217</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>7054577.7006697</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+        <v>-2399157.19575478</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.926364313099262</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.999490392095189</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.926364313099265</v>
+      </c>
       <c r="M24" t="n">
-        <v>0.000000000000351637831514038</v>
+        <v>41.0279325006923</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0000000000367305357094737</v>
+        <v>2872.38505727593</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-2399157.19575478</v>
       </c>
     </row>
   </sheetData>
